--- a/oblig_2/Results.xlsx
+++ b/oblig_2/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Code\IN3030-Effective-Parallel-Programming\oblig_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262D6F3A-EC3A-4696-B912-5E192769F72A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069A841-0C2E-4793-90DE-B0BA7258D582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33720" windowHeight="11700" xr2:uid="{BC8F06A5-EF2D-415B-85B5-2DC346E58878}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>        PARA_B_TRANSPOSED</t>
   </si>
@@ -64,6 +64,15 @@
   <si>
     <t>Matrix size</t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Speed up (slow down)</t>
+  </si>
+  <si>
+    <t>Para speedups</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -109,14 +118,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -134,6 +195,3961 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup compared</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to PARA_B_TRANSPOSED</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14836870144580272"/>
+          <c:y val="4.6541643330064386E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        SEQ_NOT_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$22:$E$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9921966095613954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4410937619678087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11423214817507803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8351141638336819E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B3AF-493C-9555-DC2FB59AD2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        SEQ_A_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$22:$E$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3093792371632376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23312649275094122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8969623837874708E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.365739828105512E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B3AF-493C-9555-DC2FB59AD2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        SEQ_B_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$22:$E$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8433894929039751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49648377363138124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18837446246717401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17525799279578913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B3AF-493C-9555-DC2FB59AD2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_NOT_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$22:$E$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3316745608249894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84730016604661917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44511130325687059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10365920361072538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B3AF-493C-9555-DC2FB59AD2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_A_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$22:$E$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.76716634429400377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45542048895115012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0190625030634085E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3153702452293203E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B3AF-493C-9555-DC2FB59AD2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_B_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$22:$E$23</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B3AF-493C-9555-DC2FB59AD2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2070496543"/>
+        <c:axId val="152688511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2070496543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152688511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152688511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>S</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2070496543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> results (logarithmic scale)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        SEQ_NOT_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$4:$E$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1390999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.84719999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4894.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7BB-420E-BE0E-010969E6B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        SEQ_A_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$4:$E$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6962999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.291899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342.59429999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13744.792100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7BB-420E-BE0E-010969E6B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        SEQ_B_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$4:$E$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2049000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1195000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.4342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1071.0958000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A7BB-420E-BE0E-010969E6B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_NOT_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$4:$E$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.6678999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7576999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.084699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1810.9159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A7BB-420E-BE0E-010969E6B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_A_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$4:$E$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8515999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336.63470000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5662.0554000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A7BB-420E-BE0E-010969E6B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_B_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$4:$E$5</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2210999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0312000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.628599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187.71809999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A7BB-420E-BE0E-010969E6B662}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="288398799"/>
+        <c:axId val="298171007"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="288398799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298171007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="298171007"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="288398799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of parallel relative to seq. version</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_NOT_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$40:$E$41</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66844535044067388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9209071610231834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8965502301039656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7028974675190605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD1A-41BC-83F8-328C4A8FC3A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_A_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$40:$E$41</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.58590080132633326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.95353382439333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0177034631308062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4275269542576359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD1A-41BC-83F8-328C4A8FC3A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>        PARA_B_TRANSPOSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$40:$E$41</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>100x100</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>200x200</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>500x500</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1000x1000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Matrix size</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$44:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.54247895187069473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0141645167692004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3085752012391767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7058738608583832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD1A-41BC-83F8-328C4A8FC3A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="144796879"/>
+        <c:axId val="2072159087"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144796879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072159087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2072159087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144796879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>432223</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530974</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163386</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA4C83F-7D14-4069-91ED-E852F2266ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>405674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>490839</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93192</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726DF76A-73CF-45EC-A8D9-002A61B7626D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>516750</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62168775-CB3C-45AB-A184-739F4D9D864C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,152 +4449,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC436F1-14DF-49CA-958D-14F51AFB9709}">
-  <dimension ref="A10:E17"/>
+  <dimension ref="A3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.83984375" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" customWidth="1"/>
+    <col min="4" max="4" width="12.83984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B6" s="1">
         <v>1.1149</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C6" s="1">
         <v>9.1390999999999991</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D6" s="1">
         <v>206.84719999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E6" s="1">
         <v>4894.72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B7" s="1">
         <v>1.6962999999999999</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C7" s="1">
         <v>17.291899999999998</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D7" s="1">
         <v>342.59429999999998</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E7" s="1">
         <v>13744.792100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B8" s="1">
         <v>1.2049000000000001</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C8" s="1">
         <v>8.1195000000000004</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D8" s="1">
         <v>125.4342</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E8" s="1">
         <v>1071.0958000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B9" s="1">
         <v>1.6678999999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C9" s="1">
         <v>4.7576999999999998</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D9" s="1">
         <v>53.084699999999998</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E9" s="1">
         <v>1810.9159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B10" s="1">
         <v>2.8952</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C10" s="1">
         <v>8.8515999999999995</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D10" s="1">
         <v>336.63470000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E10" s="1">
         <v>5662.0554000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B11" s="1">
         <v>2.2210999999999999</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C11" s="1">
         <v>4.0312000000000001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D11" s="1">
         <v>23.628599999999999</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E11" s="1">
         <v>187.71809999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B$11/B6</f>
+        <v>1.9921966095613954</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C$11/C6</f>
+        <v>0.4410937619678087</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D$11/D6</f>
+        <v>0.11423214817507803</v>
+      </c>
+      <c r="E24" s="1">
+        <f>E$11/E6</f>
+        <v>3.8351141638336819E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B$11/B7</f>
+        <v>1.3093792371632376</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C$11/C7</f>
+        <v>0.23312649275094122</v>
+      </c>
+      <c r="D25" s="1">
+        <f>D$11/D7</f>
+        <v>6.8969623837874708E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f>E$11/E7</f>
+        <v>1.365739828105512E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B$11/B8</f>
+        <v>1.8433894929039751</v>
+      </c>
+      <c r="C26" s="1">
+        <f>C$11/C8</f>
+        <v>0.49648377363138124</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D$11/D8</f>
+        <v>0.18837446246717401</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E$11/E8</f>
+        <v>0.17525799279578913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <f>B$11/B9</f>
+        <v>1.3316745608249894</v>
+      </c>
+      <c r="C27" s="1">
+        <f>C$11/C9</f>
+        <v>0.84730016604661917</v>
+      </c>
+      <c r="D27" s="1">
+        <f>D$11/D9</f>
+        <v>0.44511130325687059</v>
+      </c>
+      <c r="E27" s="1">
+        <f>E$11/E9</f>
+        <v>0.10365920361072538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B$11/B10</f>
+        <v>0.76716634429400377</v>
+      </c>
+      <c r="C28" s="1">
+        <f>C$11/C10</f>
+        <v>0.45542048895115012</v>
+      </c>
+      <c r="D28" s="1">
+        <f>D$11/D10</f>
+        <v>7.0190625030634085E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <f>E$11/E10</f>
+        <v>3.3153702452293203E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B$11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <f>C$11/C11</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D$11/D11</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <f>E$11/E11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <f>B6/B9</f>
+        <v>0.66844535044067388</v>
+      </c>
+      <c r="C42" s="1">
+        <f>C6/C9</f>
+        <v>1.9209071610231834</v>
+      </c>
+      <c r="D42" s="1">
+        <f>D6/D9</f>
+        <v>3.8965502301039656</v>
+      </c>
+      <c r="E42" s="1">
+        <f>E6/E9</f>
+        <v>2.7028974675190605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <f>B7/B10</f>
+        <v>0.58590080132633326</v>
+      </c>
+      <c r="C43" s="1">
+        <f>C7/C10</f>
+        <v>1.95353382439333</v>
+      </c>
+      <c r="D43" s="1">
+        <f>D7/D10</f>
+        <v>1.0177034631308062</v>
+      </c>
+      <c r="E43" s="1">
+        <f>E7/E10</f>
+        <v>2.4275269542576359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <f>B8/B11</f>
+        <v>0.54247895187069473</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C8/C11</f>
+        <v>2.0141645167692004</v>
+      </c>
+      <c r="D44" s="1">
+        <f>D8/D11</f>
+        <v>5.3085752012391767</v>
+      </c>
+      <c r="E44" s="1">
+        <f>E8/E11</f>
+        <v>5.7058738608583832</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B10:E10"/>
+  <mergeCells count="2">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>